--- a/similarities/split_global/harmonic_similarity_timestamps_328.xlsx
+++ b/similarities/split_global/harmonic_similarity_timestamps_328.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,690 +484,734 @@
           <t>spotify_uri_track_2</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Is the shared pattern good for the demo? (Yes/No)</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Rate the goodness of the shared pattern (from 1 to 5)</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>isophonics_138</t>
+          <t>schubert-winterreise_184</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_62</t>
+          <t>schubert-winterreise_64</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[['C:min', 'G:7', 'C:min']]</t>
+          <t>['A#:maj/F', 'F:7', 'A#:maj']</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>[['A:min', 'E:7/G#', 'A:min']]</t>
+          <t>['F:maj/C', 'C:7', 'F:maj']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[('0:00:01.129708', '0:00:06.125260')]</t>
+          <t>('0:00:28.020000', '0:00:30.100000')</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[('0:00:40.120000', '0:00:47.880000')]</t>
+          <t>('0:01:13.620000', '0:01:21.040000')</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-138#t=1.129708']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-184#t=28.02</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-62#t=40.12']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-64#t=73.62</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>spotify:track:6tQvjqDIK9GXWIC6mejms8</t>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>isophonics_107</t>
+          <t>schubert-winterreise_55</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_119</t>
+          <t>schubert-winterreise_18</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[['A', 'E', 'B:7']]</t>
+          <t>['G:maj', 'D:7/C', 'G:maj/B']</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[['C:maj', 'G:maj', 'D:7']]</t>
+          <t>['F:maj/C', 'C:7', 'F:maj']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[('0:01:44.354195', '0:01:53.665396')]</t>
+          <t>('0:01:08.640000', '0:01:17.380000')</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[('0:00:06.260000', '0:00:13.140000')]</t>
+          <t>('0:01:14.400000', '0:01:26.060000')</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-107#t=104.354195']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-55#t=68.64</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-119#t=6.26']</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-18#t=74.4</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
       <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_40</t>
+          <t>schubert-winterreise_211</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>jaah_6</t>
+          <t>schubert-winterreise_69</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[['D:maj', 'A:7', 'D:maj']]</t>
+          <t>['D#:maj/A#', 'A#:7', 'D#:maj/A#']</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[['Eb', 'Bb:7', 'Eb']]</t>
+          <t>['C:maj/G', 'G:7', 'C:maj/G']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[('0:00:02.360000', '0:00:11.660000')]</t>
+          <t>('0:01:32.260000', '0:01:39.020000')</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[('0:00:14.300000', '0:00:15.210000')]</t>
+          <t>('0:01:40.260000', '0:01:46.300000')</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-40#t=2.36']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-211#t=92.26</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-6#t=14.3']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-69#t=100.26</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_124</t>
+          <t>schubert-winterreise_20</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_191</t>
+          <t>schubert-winterreise_123</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[['F:min/C', 'C', 'F:min/C']]</t>
+          <t>['B:min', 'F#:7/A#', 'B:min']</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:maj/A#', 'B:min']]</t>
+          <t>['F:min', 'C:7/F', 'F:min']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[('0:00:48', '0:00:52.200000')]</t>
+          <t>('0:00:39.040000', '0:00:46.100000')</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[('0:00:13.080000', '0:00:19.340000')]</t>
+          <t>('0:00:14.920000', '0:00:20.760000')</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-124#t=48.0']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-20#t=39.04</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-191#t=13.08']</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-123#t=14.92</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+        </is>
+      </c>
       <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_59</t>
+          <t>isophonics_2</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_171</t>
+          <t>isophonics_130</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[['B:7/A', 'E:maj/G#', 'E:maj/B', 'B:7', 'E:maj/G#']]</t>
+          <t>['A:maj', 'D/5', 'A:maj']</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>[['C#:7', 'F#:maj', 'F#:maj/A#', 'C#:7', 'F#:maj']]</t>
+          <t>['Bb', 'Eb', 'Bb']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[('0:03:57.580000', '0:04:13.720000')]</t>
+          <t>('0:03:03.397000', '0:03:07.615000')</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[('0:00:20.420000', '0:00:24.160000')]</t>
+          <t>('0:00:17.111428', '0:00:24.599863')</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-59#t=237.58']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-2#t=183.397</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-171#t=20.42']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-130#t=17.111428</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>isophonics_216</t>
+          <t>jaah_8</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_73</t>
+          <t>jaah_21</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[['A', 'D', 'A']]</t>
+          <t>['D:7', 'G:7', 'C:7', 'F:7', 'Bb:maj6']</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>[['G:maj/B', 'C:maj', 'G:maj/D']]</t>
+          <t>['C:7', 'F:7', 'Bb:7', 'Eb:7', 'F:min7']</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[('0:00:28.009637', '0:00:33.826235')]</t>
+          <t>('0:00:45.540000', '0:00:54.020000')</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[('0:01:05.200000', '0:01:07.500000')]</t>
+          <t>('0:01:36.840000', '0:01:47.520000')</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-216#t=28.009637']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-8#t=45.54</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-73#t=65.2']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-21#t=96.84</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>isophonics_217</t>
+          <t>schubert-winterreise_215</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_73</t>
+          <t>isophonics_269</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[['G', 'C', 'G']]</t>
+          <t>['G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min']</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>[['G:maj/B', 'C:maj', 'G:maj/D']]</t>
+          <t>['A:min', 'E', 'A:min', 'E', 'A:min', 'E', 'A:min']</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[('0:00:03.826054', '0:00:14.054444')]</t>
+          <t>('0:00:22.300000', '0:00:49.660000')</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[('0:01:05.200000', '0:01:07.500000')]</t>
+          <t>('0:00:38.841000', '0:00:47.891000')</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-217#t=3.826054']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-215#t=22.3</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-73#t=65.2']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-269#t=38.841</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_66</t>
+          <t>jaah_42</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_161</t>
+          <t>schubert-winterreise_141</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>[['C/G', 'G:7', 'C'], ['C:min', 'F:7/C', 'A#']]</t>
+          <t>['C:7', 'F', 'F:7']</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>[['C:maj', 'G:7', 'C:maj'], ['C:min', 'F:7/A', 'A#:maj']]</t>
+          <t>['C:7', 'F:maj', 'F:7']</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[('0:04:22.920000', '0:04:29.360000'), ('0:00:38.060000', '0:00:41.080000')]</t>
+          <t>('0:00:41.770000', '0:00:54.590000')</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[('0:00:01.600000', '0:00:11.260000'), ('0:00:37.040000', '0:00:43.920000')]</t>
+          <t>('0:01:13.740000', '0:01:27.340000')</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-66#t=262.92', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-66#t=38.06']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-42#t=41.77</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-161#t=1.6', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-161#t=37.04']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-141#t=73.74</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_178</t>
+          <t>schubert-winterreise_121</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_29</t>
+          <t>schubert-winterreise_136</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:maj', 'D:min'], ['D:min/A', 'A:7', 'D:min']]</t>
+          <t>['C/G', 'G:7', 'C']</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>[['A#:min', 'F:maj/A', 'A#:min'], ['A#:min', 'F:7/C', 'A#:min/C#']]</t>
+          <t>['F:maj/C', 'C:7', 'F:maj']</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[('0:00:02.300000', '0:00:07.040000'), ('0:02:09.060000', '0:02:14.200000')]</t>
+          <t>('0:04:43.300000', '0:04:50.060000')</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[('0:00:11.440000', '0:00:16.380000'), ('0:00:00.800000', '0:00:02.880000')]</t>
+          <t>('0:01:19.040000', '0:01:31.180000')</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-178#t=2.3', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-178#t=129.06']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-121#t=283.3</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-29#t=11.44', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-29#t=0.8']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-136#t=79.04</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_139</t>
+          <t>schubert-winterreise_53</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_197</t>
+          <t>jaah_31</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>[['D#:min/A#', 'A#:7', 'D#:min']]</t>
+          <t>['F#:7/A#', 'B:7/A', 'E:maj/G#']</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>[['F#:min', 'C#:7', 'F#:min']]</t>
+          <t>['D:7', 'G:7', 'C']</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[('0:01:56.660000', '0:02:01.420000')]</t>
+          <t>('0:00:52.580000', '0:00:58.920000')</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[('0:00:02.860000', '0:00:07.500000')]</t>
+          <t>('0:00:58.670000', '0:01:04.130000')</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-139#t=116.66']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-53#t=52.58</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-197#t=2.86']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-31#t=58.67</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_46</t>
+          <t>schubert-winterreise_96</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_203</t>
+          <t>isophonics_34</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>[['G:min', 'D:7/G', 'G:min']]</t>
+          <t>['F:maj', 'F:7', 'A#:maj']</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>[['G:min/D', 'D:7', 'G:min']]</t>
+          <t>['Eb', 'Eb:7/b7', 'Ab']</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[('0:00:21.140000', '0:00:27.920000')]</t>
+          <t>('0:00:17.840000', '0:00:26.980000')</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[('0:00:43.180000', '0:00:45.100000')]</t>
+          <t>('0:00:07.604557', '0:00:16.370090')</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-46#t=21.14']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-96#t=17.84</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-203#t=43.18']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-34#t=7.604557</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_84</t>
+          <t>schubert-winterreise_14</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>isophonics_114</t>
+          <t>schubert-winterreise_126</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>[['D#:maj', 'A#:maj', 'D#:maj'], ['F:maj/A', 'A#:maj/D', 'D#:maj']]</t>
+          <t>['D:maj', 'G:maj', 'D:maj/F#']</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>[['E', 'B', 'E'], ['F#', 'B', 'E']]</t>
+          <t>['D:maj/F#', 'G:maj', 'D:maj']</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[('0:00:00.780000', '0:00:19.180000'), ('0:03:08.260000', '0:03:12.260000')]</t>
+          <t>('0:01:23.340000', '0:01:27.640000')</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[('0:00:30.654941', '0:00:38.514896'), ('0:00:38.514896', '0:00:45.713082')]</t>
+          <t>('0:00:58.080000', '0:01:05.660000')</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-84#t=0.78', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-84#t=188.26']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-14#t=83.34</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-114#t=30.654941', 'https://soundcloud.com/jacopo-de-berardinis/isophonics-114#t=38.514896']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-126#t=58.08</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>isophonics_165</t>
+          <t>schubert-winterreise_122</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>isophonics_136</t>
+          <t>isophonics_258</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>[['D', 'A', 'D', 'A', 'D', 'A', 'D', 'A', 'D', 'A', 'D']]</t>
+          <t>['B:min', 'E:min/B', 'B:min']</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>[['D/5', 'A', 'D', 'A', 'D', 'A', 'D', 'A', 'D/5', 'A', 'D/5']]</t>
+          <t>['E:min', 'A:min', 'E:min']</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[('0:01:56.675034', '0:02:09.295079')]</t>
+          <t>('0:00:26.200000', '0:00:33.960000')</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[('0:02:06.990000', '0:02:23.352000')]</t>
+          <t>('0:00:00.506000', '0:00:08.175000')</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-165#t=116.675034']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-122#t=26.2</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-136#t=126.99']</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-258#t=0.506</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
       <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_172</t>
+          <t>schubert-winterreise_16</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_49</t>
+          <t>schubert-winterreise_13</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>[['E:min', 'B:maj', 'E:min']]</t>
+          <t>['F:maj', 'C:maj', 'F:maj']</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>[['A:min', 'E:maj/G#', 'A:min']]</t>
+          <t>['B:maj', 'F#:maj', 'B:maj']</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[('0:01:20.220000', '0:01:27.220000')]</t>
+          <t>('0:00:01.640000', '0:00:23.480000')</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[('0:00:10.760000', '0:00:16.080000')]</t>
+          <t>('0:00:10.200000', '0:00:12.320000')</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-172#t=80.22']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-16#t=1.64</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-49#t=10.76']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-13#t=10.2</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_93</t>
+          <t>jaah_0</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>isophonics_193</t>
+          <t>schubert-winterreise_203</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>[['F#:maj/C#', 'C#:7', 'F#:maj']]</t>
+          <t>['Ab', 'Eb:7', 'Ab']</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>[['Cb', 'Gb:7', 'Cb']]</t>
+          <t>['G:maj', 'D:7/C', 'G:maj/B']</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[('0:01:14.640000', '0:01:19.200000')]</t>
+          <t>('0:00:25.220000', '0:00:27.170000')</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[('0:00:46.759000', '0:00:50.551000')]</t>
+          <t>('0:01:08.820000', '0:01:17.920000')</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-93#t=74.64']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-0#t=25.22</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-193#t=46.759']</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
-      <c r="J16" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-203#t=68.82</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
